--- a/Configurations/CM_1.1.3_03042019.xlsx
+++ b/Configurations/CM_1.1.3_03042019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ming Yu\Documents\SMU\IS214\esm214\Configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A19A4BA8-550C-4A76-A20C-7262D713BB42}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4B3459-7D58-4333-89AC-A710A4266F80}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{2BB56906-853E-4336-8E30-9BAFB26AF772}"/>
   </bookViews>
@@ -33,9 +33,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
-    <t>Date Deployed: 18/2/2019</t>
-  </si>
-  <si>
     <t>Deployment Environment</t>
   </si>
   <si>
@@ -179,6 +176,9 @@
   </si>
   <si>
     <t>Freshping</t>
+  </si>
+  <si>
+    <t>Date Deployed: 31/3/2019</t>
   </si>
 </sst>
 </file>
@@ -746,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93682F7B-66A1-4A6C-AA5E-0430957AF32E}">
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5"/>
@@ -759,7 +759,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2"/>
     </row>
@@ -773,10 +773,10 @@
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1">
@@ -785,15 +785,15 @@
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
@@ -801,7 +801,7 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1">
       <c r="A8" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
@@ -809,157 +809,157 @@
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1">
       <c r="A9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1">
       <c r="A10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1">
       <c r="A11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" customHeight="1">
       <c r="A13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1">
       <c r="A14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" customHeight="1">
       <c r="A16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1">
       <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1">
       <c r="A20" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="13" t="s">
         <v>29</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="11"/>
       <c r="B26" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="20" t="s">
         <v>34</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="17"/>
       <c r="B31" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="17"/>
       <c r="B32" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="17"/>
       <c r="B33" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="21"/>
       <c r="B34" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" s="12">
         <v>8000</v>
@@ -980,33 +980,33 @@
     <row r="41" spans="1:2">
       <c r="A41" s="18"/>
       <c r="B41" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="10"/>
       <c r="B44" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="10"/>
       <c r="B45" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="11"/>
       <c r="B46" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
